--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guxiren/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guxiren/git/jishu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -280,18 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "nickName": "xiren",
-    "email":null,
-    "phoneNumber":"13967181428",
-    "password": "123",
-    "imageVercode": "wh79",
-    "emailVercode": null,
-    "phoneVercode":"3751"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Email登录，phoneNumber为null，否则反过来</t>
     <rPh sb="5" eb="6">
       <t>deng lu</t>
@@ -528,6 +516,17 @@
 "secondURL":"http://www.unclejee.cn/blog/39",
 "secondName":"通",
 "content":" 评论了文章："}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "nickName": "xiren",
+    "email":null,
+    "phoneNumber":"13967181428",
+    "password": "123",
+    "emailVercode": null,
+    "phoneVercode":"3751"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,7 +941,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -972,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -983,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
@@ -1038,96 +1037,96 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1135,24 +1134,24 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -527,6 +527,126 @@
     "emailVercode": null,
     "phoneVercode":"3751"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人订单接口</t>
+    <rPh sb="0" eb="1">
+      <t>ge ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取未完成订单</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已完成订单</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi wan cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding dna</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将订单设置成已完成订单</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi wan cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/getUncompletePerchaseContactOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/getCompletedPerchaseContactOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/completedPerchaseContactOrder</t>
+  </si>
+  <si>
+    <t>{
+    "id":"18"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id":"201905021701034661260",
+    "sellerId":"18"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id和卖家id</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mai jia</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,12 +694,18 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -604,12 +730,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,7 +1039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -945,7 +1072,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1003,7 +1130,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1036,7 +1163,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1152,6 +1279,62 @@
       </c>
       <c r="C27" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -646,6 +646,80 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>mai jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <rPh sb="0" eb="1">
+      <t>ge ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　localhost/jishu/user?id=18</t>
+  </si>
+  <si>
+    <t>获取用户所有帖子</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tie zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/userAllArticles</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/userAllCollectArticles</t>
+  </si>
+  <si>
+    <t>获取用户所有收藏的帖子</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tie zi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,6 +1411,53 @@
         <v>74</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -721,6 +721,52 @@
     <rPh sb="9" eb="10">
       <t>tie zi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新昵称</t>
+    <rPh sb="0" eb="1">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ni cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id":"18",
+"nickName":"testname"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/updateUserNickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/updateUserHeadImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新头像</t>
+    <rPh sb="0" eb="1">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id":"18",
+"headImage":"http://cdn.unclejee.cn/20190127165929_6.jpg"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,6 +1504,34 @@
         <v>71</v>
       </c>
     </row>
+    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -766,6 +766,89 @@
     <t>{
     "id":"18",
 "headImage":"http://cdn.unclejee.cn/20190127165929_6.jpg"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取粉丝列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关注的人</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan zhu shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取粉丝数</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关注数</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan zhu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/getFans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/getFaneds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/getFanCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/getFanedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ownerId":"18"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "fanId":"18"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,6 +1615,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -799,45 +799,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取粉丝数</t>
-    <rPh sb="0" eb="1">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen si</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取关注数</t>
-    <rPh sb="0" eb="1">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan zhu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>localhost/jishu/getFans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>localhost/jishu/getFaneds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost/jishu/getFanCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost/jishu/getFanedCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1227,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="A47" sqref="A47:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,13 +1586,13 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1634,41 +1600,13 @@
         <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -770,52 +770,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取粉丝列表</t>
-    <rPh sb="0" eb="1">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t xml:space="preserve">"id": 18,
+        "nickName": "sparrowFlyer",
+        "email": "1158362548@qq.com",
+        "cellPhone": null,
+        "headImage": "cdn.unclejee.cn/20190118215849_614.jpg",
+        "type": "user",
+        "status": "active",
+        "likeAmount": 4,
+        "courseAmount": 0,
+        "comment": "我爱叽叔",
+        "createdTime": "2019-03-29 10:30:06",
+        "updatedTime": "2019-05-13 11:07:42",
+        "userStudentInfo": {
+            "userId": 18,
+            "description": "我是个帅哥",
+            "major": "测试专业",
+            "topics": "测试话题",
+            "honors": "测试荣誉",
+            "contacts": "测试联系方式",
+            "contactsPrice": 50,
+            "scoreResponse": 5,
+            "scoreAttitude": 5,
+            "scoreProfessional": 5
+        },
+        "school": {
+            "id": 8,
+            "enName": "University of Oxford",
+            "cnName": "牛津大学",
+            "country": "英国",
+            "location": "英格兰 牛津",
+            "officialSite": "http://www.ox.ac.uk/",
+            "description": "牛津大学（英文名称University of Oxford、英文缩写Oxford，中文简称“牛津”），位于英国牛津，是一所誉满世界的公立研究型大学 ，采用书院联邦制  ，与剑桥大学并称“牛剑”   ，并且与剑桥大学、伦敦大学学院、帝国理工学院、伦敦政治经济学院同属“G5超级精英大学” 。",
+            "rank": 5,
+            "iconImage": "http://cdn.unclejee.cn/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6.jpg",
+            "homeImage": "http://cdn.unclejee.cn/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E8%83%8C%E6%99%AF%E5%9B%BE.jpg",
+            "dataBasic": "测试基本数据(待修改)",
+            "dataApply": "测试申请数据(待修改)",
+            "likeAmount": 0
+        }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝数，课程数，个人签名
+都可以得到</t>
+    <rPh sb="0" eb="1">
       <t>fen si</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>lie biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取关注的人</t>
-    <rPh sb="0" eb="1">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan zhu shu</t>
+      <t>ke cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian m</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dou ke yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人签名</t>
+    <rPh sb="0" eb="1">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge ren</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost/jishu/getFans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost/jishu/getFaneds</t>
+      <t>qian m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost/jishu/updateUserComment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "ownerId":"18"
+    "id":"18",
+"comment":"我爱叽叔"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "fanId":"18"
-}</t>
+    <rPh sb="28" eb="29">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ji shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,13 +955,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1193,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D48"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,6 +1264,7 @@
     <col min="2" max="2" width="70" customWidth="1"/>
     <col min="4" max="4" width="93.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1489,7 +1549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1506,12 +1566,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1521,8 +1581,14 @@
       <c r="C38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1539,7 +1605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1553,7 +1619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1567,7 +1633,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -1581,33 +1647,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="43" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -623,29 +623,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "id":"201905021701034661260",
-    "sellerId":"18"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户id</t>
     <rPh sb="0" eb="1">
       <t>yong hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id和卖家id</t>
-    <rPh sb="0" eb="1">
-      <t>ding dan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mai jia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -871,6 +851,30 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id":"201905021701034661260",
+    "buyerId":"19"
+    "sellerId":"18"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id和买家id，卖家id</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mai jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mai jia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1533,7 @@
         <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1546,10 +1550,10 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1560,60 +1564,60 @@
         <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>71</v>
@@ -1621,44 +1625,44 @@
     </row>
     <row r="41" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -875,6 +875,33 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>mai jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id":18,
+     "page":1,
+     "pageSize":8
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id，第几页，每页几条记录</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di ji ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji tiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji lu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1258,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1530,13 +1557,13 @@
         <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1547,10 +1574,10 @@
         <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -508,15 +508,6 @@
   </si>
   <si>
     <t>　localhost/jishu/getNotificationByTypeId?typeId=1</t>
-  </si>
-  <si>
-    <t>{"userURL":"http://www.unclejee.cn/user/19",
-"userName":"xiren",
-"userImg":"cdn.unclejee.cn/20190118215849_614.jpg",
-"secondURL":"http://www.unclejee.cn/blog/39",
-"secondName":"通",
-"content":" 评论了文章："}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -879,30 +870,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户id，第几页，每页几条记录</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di ji ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji tiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-    "id":18,
+    "userId":18,
      "page":1,
      "pageSize":8
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户id，第几页，每页几条记录</t>
-    <rPh sb="0" eb="1">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>di ji ye</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mei ye</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ji tiao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji lu</t>
-    </rPh>
+    <t>{
+    "userId":18,
+     "page":1,
+     "pageSize":8
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userURL":"http://www.unclejee.cn/user/19",
+"userName":"xiren",
+"userImg":"cdn.unclejee.cn/20190118215849_614.jpg",
+"secondURL":"http://www.unclejee.cn/blog/39",
+"secondName":"通",
+"content":" 评论了文章："}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data": {
+        "pageNum": 1,
+        "pageSize": 1,
+        "size": 1,
+        "startRow": 1,
+        "endRow": 1,
+        "total": 9,
+        "pages": 9,
+        "list": [
+            {
+                "id": "201905201846512666557",
+                "sellerId": 18,
+                "buyerId": 23,
+                "questions": "xxxx",
+                "payment": "alipay",
+                "paymentAdditionalInfo": "2019052022001431721035518134",
+                "paymentAmount": 0.01,
+                "status": "payed",
+                "randomCode": "HF3CJJ",
+                "scoreResponse": null,
+                "scoreAttitude": null,
+                "scoreProfessional": null,
+                "createdTime": "2019-05-20 18:46:51",
+                "updatedTime": "2019-05-20 18:47:32",
+                "comment": null
+            }
+        ],
+        "prePage": 0,
+        "nextPage": 2,
+        "isFirstPage": true,
+        "isLastPage": false,
+        "hasPreviousPage": false,
+        "hasNextPage": true,
+        "navigatePages": 8,
+        "navigatepageNums": [
+            1,
+            2,
+            3,
+            4,
+            5,
+            6,
+            7,
+            8
+        ],
+        "navigateFirstPage": 1,
+        "navigateLastPage": 8,
+        "firstPage": 1,
+        "lastPage": 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
@@ -1422,12 +1481,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1441,10 +1500,10 @@
         <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1469,7 +1528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1483,7 +1542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1497,7 +1556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1519,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1530,7 +1589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1541,155 +1600,158 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
         <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
         <v>71</v>
-      </c>
-      <c r="E39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>验证码</t>
     <rPh sb="0" eb="1">
@@ -962,6 +962,35 @@
         "navigateLastPage": 8,
         "firstPage": 1,
         "lastPage": 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data": [
+        {
+            "id": 55,
+            "userId": 18,
+            "title": "您有一位新粉丝！",
+            "content": "{\"userId\":\"20\",\"userName\":\"guxiren1\",\"userImg\":\"cdn.unclejee.cn/20190118215849_614.jpg\",\"content\":\" 关注了你\"}",
+            "clickUrl": null,
+            "typeId": 1,
+            "status": "unread",
+            "createdTime": "2019-05-26 22:38:42",
+            "updatedTime": null
+        }
+    ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data": [
+        {
+            "id": 1,
+            "value": "关注通知"
+        },
+        {
+            "id": 6,
+            "value": "订单通知"
+        }
+    ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1588,8 +1617,11 @@
       <c r="C26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1598,6 +1630,9 @@
       </c>
       <c r="C27" t="s">
         <v>52</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guxiren/git/jishu/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8110" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21620" windowHeight="13020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t xml:space="preserve">用户登录接口 </t>
   </si>
@@ -214,24 +227,6 @@
   </si>
   <si>
     <t>根据通知类型，获取该类型所有通知</t>
-  </si>
-  <si>
-    <t>　localhost/jishu/getNotificationByTypeId?typeId=1</t>
-  </si>
-  <si>
-    <t>"data": [
-        {
-            "id": 55,
-            "userId": 18,
-            "title": "您有一位新粉丝！",
-            "content": "{\"userId\":\"20\",\"userName\":\"guxiren1\",\"userImg\":\"cdn.unclejee.cn/20190118215849_614.jpg\",\"content\":\" 关注了你\"}",
-            "clickUrl": null,
-            "typeId": 1,
-            "status": "unread",
-            "createdTime": "2019-05-26 22:38:42",
-            "updatedTime": null
-        }
-    ]</t>
   </si>
   <si>
     <t>个人订单接口</t>
@@ -435,22 +430,79 @@
 "comment":"我爱叽叔"
 }</t>
   </si>
+  <si>
+    <t>　localhost/jishu/getNotificationByTypeId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "typeId":6,
+ "page":2,
+ "pageSize":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data": {
+        "pageNum": 2,
+        "pageSize": 1,
+        "size": 1,
+        "startRow": 2,
+        "endRow": 2,
+        "total": 12,
+        "pages": 12,
+        "list": [
+            {
+                "id": 14,
+                "userId": 18,
+                "title": "您的联系方式有新购买者！",
+                "content": "{\"userURL\":\"http://www.unclejee.cn/user/19\",\"userName\":\"xiren\",\"userImg\":\"cdn.unclejee.cn/20190118215849_614.jpg\",\"content\":\" 购买了您的联系方式！\"}",
+                "clickUrl": null,
+                "typeId": 6,
+                "status": "unread",
+                "createdTime": "2019-05-06 23:10:56",
+                "updatedTime": null
+            }
+        ],
+        "prePage": 1,
+        "nextPage": 3,
+        "isFirstPage": false,
+        "isLastPage": false,
+        "hasPreviousPage": true,
+        "hasNextPage": true,
+        "navigatePages": 8,
+        "navigatepageNums": [
+            1,
+            2,
+            3,
+            4,
+            5,
+            6,
+            7,
+            8
+        ],
+        "navigateFirstPage": 1,
+        "navigateLastPage": 8,
+        "firstPage": 1,
+        "lastPage": 8
+    }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -461,142 +513,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,198 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249946592608417"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="2" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -804,245 +542,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1060,55 +562,10 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1370,35 +827,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="31" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6153846153846" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="4" max="4" width="93.6615384615385" customWidth="1"/>
-    <col min="5" max="5" width="32.3307692307692" customWidth="1"/>
-    <col min="6" max="6" width="81.3307692307692" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,12 +882,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
+    <row r="5" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1453,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1470,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1484,12 +940,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
+    <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1517,12 +973,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:1">
+    <row r="17" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1539,7 +995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:3">
+    <row r="19" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1564,7 +1020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1578,7 +1034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1592,7 +1048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
+    <row r="24" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1603,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:3">
+    <row r="25" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1628,188 +1084,191 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" hidden="1" customHeight="1"/>
-    <row r="29" hidden="1" customHeight="1"/>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="E33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:6" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:6" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" hidden="1" customHeight="1"/>
-    <row r="35" hidden="1" customHeight="1"/>
-    <row r="36" hidden="1" customHeight="1"/>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="E39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E39" t="s">
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="1" t="s">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="4:4">
+    </row>
+    <row r="45" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" customHeight="1" spans="4:4">
+    <row r="46" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>